--- a/模型效果跟踪.xlsx
+++ b/模型效果跟踪.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
   <si>
     <t>表 - grp * flag_t</t>
   </si>
@@ -49,13 +49,17 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>fdfdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +319,27 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -345,32 +370,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -378,6 +382,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,7 +436,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -456,9 +468,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -490,6 +503,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -665,77 +679,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" thickBot="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.25" thickBot="1">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="13" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" thickBot="1">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
+    <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="16"/>
-    </row>
-    <row r="4" spans="1:5" ht="14.25" thickBot="1">
+      <c r="E3" s="23"/>
+    </row>
+    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="18">
+      <c r="C4" s="24">
         <v>6080</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="25">
         <v>1856</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="25">
         <v>7936</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25" thickBot="1">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1">
-      <c r="A6" s="21"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
@@ -749,8 +763,8 @@
         <v>40.33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1">
-      <c r="A7" s="21"/>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
@@ -762,8 +776,8 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1">
-      <c r="A8" s="23"/>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
@@ -775,8 +789,8 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -792,8 +806,8 @@
         <v>8124</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1">
-      <c r="A10" s="21"/>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
@@ -807,8 +821,8 @@
         <v>41.29</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1">
-      <c r="A11" s="21"/>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
@@ -820,8 +834,8 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1">
-      <c r="A12" s="23"/>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
       <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
@@ -833,8 +847,8 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -850,8 +864,8 @@
         <v>3616</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1">
-      <c r="A14" s="21"/>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
       <c r="B14" s="4" t="s">
         <v>6</v>
       </c>
@@ -865,8 +879,8 @@
         <v>18.38</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1">
-      <c r="A15" s="21"/>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
@@ -878,8 +892,8 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1">
-      <c r="A16" s="23"/>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -891,32 +905,32 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="14.25" thickBot="1">
+    <row r="17" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="19">
+      <c r="C17" s="10">
         <v>12579</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="11">
         <v>7097</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="11">
         <v>19676</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.25" thickBot="1">
-      <c r="A18" s="25" t="s">
+    <row r="18" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-    </row>
-    <row r="19" spans="1:5" ht="14.25">
-      <c r="A19" s="24"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="13"/>
       <c r="B19" s="6" t="s">
         <v>6</v>
       </c>
@@ -930,14 +944,13 @@
         <v>100</v>
       </c>
     </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:D2"/>
@@ -946,6 +959,12 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -954,12 +973,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -968,12 +987,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
